--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3170113.239933471</v>
+        <v>3167862.421547577</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>68.74941780921871</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.938553216412243</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>203.2930406638711</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>163.9206648785247</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5747219976508</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400733</v>
       </c>
       <c r="W10" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396211</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>84.69473660442824</v>
+        <v>188.061934473679</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>6.380068175847668</v>
       </c>
       <c r="T16" t="n">
-        <v>72.45797022779067</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>49.83383350955546</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,13 +2056,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>188.9347161148175</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>43.5417110730416</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2296,16 +2296,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>51.00672667166808</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>156.8454273099541</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785985</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>57.68096378755391</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>36.15999212057559</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
-        <v>51.19843204834204</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>49.97741920874061</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301915</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100141</v>
+        <v>67.95608738100151</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121064</v>
+        <v>60.53581964121074</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W34" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X34" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>135.8988215615476</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>51.19843204834157</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301915</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121067</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S37" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U37" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W37" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697911</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F40" t="n">
-        <v>52.12581953759398</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301915</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100142</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121065</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W40" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.1883203232581</v>
+        <v>118.267651810375</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>51.19843204834194</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301915</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121065</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473325</v>
+        <v>50.57147450889757</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W43" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X43" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697911</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.31138610012761</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F46" t="n">
         <v>117.0247149940946</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>70.12424455218928</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100154</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121085</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S46" t="n">
         <v>161.3726923026053</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U46" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W46" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X46" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.524362591491</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>906.5618456510797</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>548.2961470443292</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>548.2961470443292</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>541.3506462951258</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>123.3868381933127</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>123.3868381933127</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.124202655613</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>498.8626623130036</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V4" t="n">
-        <v>498.8626623130036</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W4" t="n">
-        <v>498.8626623130036</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X4" t="n">
-        <v>498.8626623130036</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>955.5060781830496</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>586.5435612426379</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
         <v>228.2778626358874</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2436.773895827634</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2105.711008484063</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2105.711008484063</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1732.245250222983</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1342.105918247171</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628375</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>788.6064466590959</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.982325640618</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.982325640618</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.982325640618</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951859</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,40 +5118,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5197,10 +5197,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1780.962769867859</v>
+        <v>1676.551458888818</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437385</v>
+        <v>1454.784843458344</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1165.681976583988</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>910.9974883781011</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>621.5803183411406</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
     <row r="14">
@@ -5279,25 +5279,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,40 +5355,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>409.4810578558178</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="T16" t="n">
-        <v>1691.467713014569</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U16" t="n">
-        <v>1402.364846140213</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V16" t="n">
-        <v>1147.680357934326</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W16" t="n">
-        <v>858.2631878973652</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X16" t="n">
-        <v>630.2736369993479</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y16" t="n">
-        <v>409.4810578558178</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,22 +5516,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>637.8590697562979</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1088.893283004707</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>1622.425187676631</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3511.079945518569</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4224.435032965514</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015825</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736755</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736755</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736755</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501055</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1352.047818910331</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1062.63064887337</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X19" t="n">
-        <v>834.6410979753524</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.8485188318223</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5756,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364129</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736755</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736755</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927019</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.361939768297</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.676055595124</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.90944016465</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.806573290293</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1220850844061</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>665.7049150474453</v>
+        <v>874.5404723472664</v>
       </c>
       <c r="X22" t="n">
-        <v>665.7049150474453</v>
+        <v>646.550921449249</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.9123359039152</v>
+        <v>595.0289753162509</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>301.7164587107642</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>956.4397908460637</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M23" t="n">
-        <v>2368.748013620957</v>
+        <v>1941.005908766397</v>
       </c>
       <c r="N23" t="n">
-        <v>3348.500285847604</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1708.083284306722</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1486.316668876249</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1197.213802001892</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>942.529313796005</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>653.1121437590444</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>425.1225928610272</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>753.1470291944245</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1617.665844847779</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2151.197749519704</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3130.950021746351</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6303,7 +6303,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,13 +6385,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6467,16 +6467,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6491,22 +6491,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6540,10 +6540,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839437</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6619,16 +6619,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1919.818221538466</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>894.9278122480887</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>666.9382613500713</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2215.249704195857</v>
+        <v>2593.249184644076</v>
       </c>
       <c r="N32" t="n">
-        <v>2762.028521254639</v>
+        <v>3573.001456870723</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383129</v>
+        <v>472.472828938311</v>
       </c>
       <c r="C34" t="n">
-        <v>472.4728289383129</v>
+        <v>332.2198106859966</v>
       </c>
       <c r="D34" t="n">
-        <v>420.7572410106945</v>
+        <v>332.2198106859966</v>
       </c>
       <c r="E34" t="n">
-        <v>420.7572410106945</v>
+        <v>281.7375690610062</v>
       </c>
       <c r="F34" t="n">
-        <v>420.7572410106945</v>
+        <v>281.7375690610062</v>
       </c>
       <c r="G34" t="n">
-        <v>281.737569061006</v>
+        <v>281.7375690610062</v>
       </c>
       <c r="H34" t="n">
-        <v>164.2035469544564</v>
+        <v>164.2035469544566</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K34" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413027</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883474</v>
+        <v>745.567757388347</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N34" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O34" t="n">
-        <v>1814.799887709819</v>
+        <v>1814.799887709818</v>
       </c>
       <c r="P34" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R34" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.095131126209</v>
       </c>
       <c r="S34" t="n">
-        <v>1957.09241162863</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.008960873748</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U34" t="n">
-        <v>1503.589258674984</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.58793514469</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.853929783322</v>
+        <v>1016.85392978332</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608975</v>
+        <v>817.5475435608956</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.43812909296</v>
+        <v>625.4381290929581</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7017,37 +7017,37 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>472.4728289383122</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="C37" t="n">
-        <v>472.4728289383122</v>
+        <v>335.2012920074554</v>
       </c>
       <c r="D37" t="n">
-        <v>472.4728289383122</v>
+        <v>213.7678172707122</v>
       </c>
       <c r="E37" t="n">
-        <v>420.7572410106945</v>
+        <v>213.7678172707122</v>
       </c>
       <c r="F37" t="n">
-        <v>420.7572410106945</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>281.737569061006</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>164.2035469544564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K37" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N37" t="n">
         <v>1487.357919090857</v>
@@ -7129,16 +7129,16 @@
         <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1277.58793514469</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1016.853929783322</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>817.5475435608969</v>
+        <v>817.5475435608962</v>
       </c>
       <c r="Y37" t="n">
-        <v>625.4381290929593</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7175,22 +7175,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,22 +7251,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902953</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.8925311370765</v>
+        <v>545.1199688503146</v>
       </c>
       <c r="C40" t="n">
-        <v>592.6395128847616</v>
+        <v>404.8669505980002</v>
       </c>
       <c r="D40" t="n">
-        <v>592.6395128847616</v>
+        <v>283.4334758612571</v>
       </c>
       <c r="E40" t="n">
-        <v>473.4095839779611</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="F40" t="n">
-        <v>420.7572410106945</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="G40" t="n">
-        <v>281.7375690610061</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H40" t="n">
         <v>164.2035469544565</v>
@@ -7330,16 +7330,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K40" t="n">
-        <v>400.8955892413029</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M40" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N40" t="n">
         <v>1487.357919090857</v>
@@ -7360,22 +7360,22 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.008960873748</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.008960873748</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V40" t="n">
-        <v>1538.007637343454</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W40" t="n">
-        <v>1277.273631982086</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>1077.967245759661</v>
+        <v>817.5475435608961</v>
       </c>
       <c r="Y40" t="n">
-        <v>885.8578312917234</v>
+        <v>698.0852690049618</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7418,13 +7418,13 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7491,49 +7491,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.4728289383125</v>
+        <v>614.4739822094588</v>
       </c>
       <c r="C43" t="n">
-        <v>472.4728289383125</v>
+        <v>474.2209639571444</v>
       </c>
       <c r="D43" t="n">
-        <v>472.4728289383125</v>
+        <v>352.7874892204012</v>
       </c>
       <c r="E43" t="n">
-        <v>420.7572410106944</v>
+        <v>352.7874892204012</v>
       </c>
       <c r="F43" t="n">
-        <v>420.7572410106944</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="G43" t="n">
-        <v>281.737569061006</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>164.2035469544564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K43" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413031</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883476</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M43" t="n">
         <v>1117.837172686445</v>
@@ -7582,7 +7582,7 @@
         <v>1487.357919090858</v>
       </c>
       <c r="O43" t="n">
-        <v>1814.79988770982</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P43" t="n">
         <v>2075.519757842027</v>
@@ -7591,28 +7591,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S43" t="n">
-        <v>1957.09241162863</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.008960873748</v>
+        <v>1906.010114144894</v>
       </c>
       <c r="U43" t="n">
-        <v>1503.589258674985</v>
+        <v>1645.590411946131</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.58793514469</v>
+        <v>1419.589088415836</v>
       </c>
       <c r="W43" t="n">
-        <v>1016.853929783322</v>
+        <v>1158.855083054468</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608971</v>
+        <v>959.5486968320434</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929596</v>
+        <v>767.4392823641059</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.56914656307</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811478</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483401</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542182</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232735</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.49719767968</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7710,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.4728289383085</v>
+        <v>472.4728289383116</v>
       </c>
       <c r="C46" t="n">
-        <v>332.2198106859942</v>
+        <v>472.4728289383116</v>
       </c>
       <c r="D46" t="n">
-        <v>282.4103297767743</v>
+        <v>472.4728289383116</v>
       </c>
       <c r="E46" t="n">
-        <v>282.4103297767743</v>
+        <v>353.242900031511</v>
       </c>
       <c r="F46" t="n">
-        <v>164.2035469544566</v>
+        <v>235.0361172091932</v>
       </c>
       <c r="G46" t="n">
-        <v>164.2035469544566</v>
+        <v>235.0361172091932</v>
       </c>
       <c r="H46" t="n">
-        <v>164.2035469544566</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>168.7960365938781</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413023</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883461</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686443</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090855</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.799887709816</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842023</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693086</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2120.095131126207</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>1957.092411628625</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.008960873744</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1503.58925867498</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.587935144686</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W46" t="n">
-        <v>1016.853929783318</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X46" t="n">
-        <v>817.5475435608931</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.4381290929555</v>
+        <v>625.4381290929588</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783528</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>353.7642348290861</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>19.79750571619365</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>183.0848540075446</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9404,25 +9404,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277313</v>
+        <v>388.4310778980902</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>17.45080131650943</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>226.768859619311</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>136.2499899971294</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,19 +10115,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>413.669975960786</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>124.0833809162815</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,16 +10832,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>34.13957882094019</v>
       </c>
       <c r="O38" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>183.0848540075445</v>
       </c>
       <c r="O44" t="n">
-        <v>344.702583647695</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>105.0742887270137</v>
+        <v>1.7070908577629</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.3889571555942</v>
       </c>
       <c r="T16" t="n">
-        <v>147.0909790483786</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>129.9981466723818</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>63.20292720901051</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.39044159700577</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>167.5779266804267</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>32.92359802148778</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270145</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>90.93450923065845</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>52.77216054947174</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696621</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697911</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.02070794103363</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177325</v>
+        <v>68.06021040899194</v>
       </c>
       <c r="F34" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697911</v>
+        <v>2.951666508243622</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>66.83919756939092</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>64.89889545650058</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767762</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>71.9206685128832</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697911</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>66.83919756939056</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>140.581141738435</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>70.90775388924806</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6294752301915</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854841</v>
+        <v>46.23443733329489</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732102.7947860797</v>
+        <v>732102.7947860796</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746725.8067899158</v>
+        <v>746725.8067899157</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>746725.8067899157</v>
+        <v>746725.8067899158</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>746725.8067899158</v>
+        <v>746725.8067899157</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078713</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="G2" t="n">
         <v>675039.0377078715</v>
@@ -26332,25 +26332,25 @@
         <v>675039.0377078715</v>
       </c>
       <c r="I2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078711</v>
       </c>
       <c r="J2" t="n">
         <v>675039.0377078713</v>
       </c>
       <c r="K2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078719</v>
       </c>
       <c r="L2" t="n">
-        <v>688849.6601559391</v>
+        <v>688849.6601559387</v>
       </c>
       <c r="M2" t="n">
         <v>688849.6601559394</v>
       </c>
       <c r="N2" t="n">
-        <v>688849.6601559396</v>
+        <v>688849.6601559394</v>
       </c>
       <c r="O2" t="n">
-        <v>688849.6601559391</v>
+        <v>688849.6601559388</v>
       </c>
       <c r="P2" t="n">
         <v>688849.6601559388</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.413993407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306935</v>
+        <v>22717.06642306913</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.314838945</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571281</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918992</v>
       </c>
-      <c r="H4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,16 +26448,16 @@
         <v>27492.30103190632</v>
       </c>
       <c r="M4" t="n">
+        <v>27492.30103190627</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27492.30103190628</v>
+      </c>
+      <c r="O4" t="n">
         <v>27492.30103190629</v>
       </c>
-      <c r="N4" t="n">
-        <v>27492.30103190631</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27492.30103190631</v>
-      </c>
       <c r="P4" t="n">
-        <v>27492.30103190642</v>
+        <v>27492.3010319063</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26500,16 @@
         <v>98770.76957511493</v>
       </c>
       <c r="M5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="N5" t="n">
         <v>98770.76957511491</v>
       </c>
       <c r="O5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511489</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-158290.1397504409</v>
       </c>
       <c r="C6" t="n">
-        <v>431677.7394641038</v>
+        <v>431677.7394641037</v>
       </c>
       <c r="D6" t="n">
-        <v>431677.7394641037</v>
+        <v>431677.7394641035</v>
       </c>
       <c r="E6" t="n">
-        <v>-166870.386858439</v>
+        <v>-166937.5823486651</v>
       </c>
       <c r="F6" t="n">
-        <v>560507.0271349681</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="G6" t="n">
-        <v>560507.027134968</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="H6" t="n">
-        <v>560507.027134968</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="I6" t="n">
-        <v>560507.0271349677</v>
+        <v>560439.8316447417</v>
       </c>
       <c r="J6" t="n">
-        <v>384083.8079423747</v>
+        <v>384016.612452149</v>
       </c>
       <c r="K6" t="n">
-        <v>560507.0271349681</v>
+        <v>560439.8316447425</v>
       </c>
       <c r="L6" t="n">
-        <v>539869.5231258485</v>
+        <v>539842.947113411</v>
       </c>
       <c r="M6" t="n">
-        <v>432944.2747099734</v>
+        <v>432917.6986975359</v>
       </c>
       <c r="N6" t="n">
-        <v>562586.5895489184</v>
+        <v>562560.0135364808</v>
       </c>
       <c r="O6" t="n">
-        <v>562586.5895489177</v>
+        <v>562560.0135364803</v>
       </c>
       <c r="P6" t="n">
-        <v>562586.5895489191</v>
+        <v>562560.0135364803</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,28 +26978,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.295573980133568e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.225657850375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639382</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>83.18189843564254</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35284188332972</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3433210255655</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>47.9311268444182</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>190.7623767421583</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>11.17753647248406</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375471</v>
       </c>
       <c r="W10" t="n">
-        <v>24.62049154535646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.367491921611252e-14</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883668</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987558</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>728.5192284577547</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35656,10 +35656,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>906.0660702419976</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35668,7 +35668,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,7 +35817,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>356.988792271594</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>433.8791588112641</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200632</v>
+        <v>844.0211922904224</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>208.237802285222</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
@@ -36364,22 +36364,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>734.8218605075301</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>473.4412765525299</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36835,19 +36835,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>787.7611930989425</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>952.5910917910126</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>727.3874636142355</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.9747496419029</v>
+        <v>73.9747496419028</v>
       </c>
       <c r="K34" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L34" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M34" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O34" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>676.385216329193</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.9747496419029</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O37" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
         <v>263.3534041739471</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>586.4414142338517</v>
       </c>
       <c r="O38" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190287</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L40" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M40" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
@@ -37786,16 +37786,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>615.7497445457057</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190293</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K43" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990349</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M43" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O43" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
         <v>263.3534041739471</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.336699126564</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923307</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302252</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129099</v>
+        <v>735.386689420456</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359126</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908531</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636232</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152067</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597665</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127344</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190262</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731558</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990342</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223199</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963761</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514758</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
-        <v>263.3534041739466</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.79057156673</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
